--- a/biology/Histoire de la zoologie et de la botanique/Marin_Molliard/Marin_Molliard.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Marin_Molliard/Marin_Molliard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marin Molliard est un botaniste français, né le 8 juin 1866 à Châtillon-Coligny (Loiret) et mort le 24 juillet 1944 à Paris.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il entre en 1888 à l’École normale supérieure où il obtient ses licences de mathématiques (1889), de physique (1890) et de sciences naturelles (1891). Agrégé de sciences naturelles en 1892, il devient préparateur dans ce même établissement. Il devient chef de travaux à la faculté des sciences de Paris (1894) et obtient son doctorat (1895) avec une thèse intitulée Recherches sur les cécidies florales.
 Il se marie en 1893 avec Marthe Debray, fille d’un professeur de chimie à la faculté des sciences de Paris, Henri Debray (1827-1888). De cette union naîtront deux enfants.
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Christophe Charle et Eva Telkes (1989). Les Professeurs de la Faculté des sciences de Paris. Dictionnaire biographique (1901-1939), Institut national de recherche pédagogique (Paris) et CNRS Éditions, collection Histoire biographique de l’Enseignement : 270 p.  (ISBN 2-222-04336-0)</t>
         </is>
